--- a/dataset-2/2-with_data_augmentation/results/fake_gmm.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/fake_gmm.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.1823204419889503</v>
       </c>
       <c r="C2">
-        <v>0.5714285714285714</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="D2">
-        <v>0.5333333333333333</v>
+        <v>0.2761506276150628</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.1823204419889503</v>
       </c>
       <c r="C3">
-        <v>0.5714285714285714</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="D3">
-        <v>0.5333333333333333</v>
+        <v>0.2761506276150628</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.375</v>
+        <v>0.1823204419889503</v>
       </c>
       <c r="C4">
-        <v>0.4285714285714285</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>0.2761506276150628</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4285714285714285</v>
+        <v>0.1823204419889503</v>
       </c>
       <c r="C5">
-        <v>0.4285714285714285</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="D5">
-        <v>0.4285714285714285</v>
+        <v>0.2761506276150628</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4285714285714285</v>
+        <v>0.1823204419889503</v>
       </c>
       <c r="C6">
-        <v>0.4285714285714285</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="D6">
-        <v>0.4285714285714285</v>
+        <v>0.2761506276150628</v>
       </c>
     </row>
   </sheetData>
